--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FCCFA-7909-4C51-AF03-4CC7D33ABDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3166646-990C-4090-9728-631E0B0546D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="93">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,128 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_002</t>
-  </si>
-  <si>
-    <t>이름_003</t>
-  </si>
-  <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>이름_005</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>이름_015</t>
-  </si>
-  <si>
-    <t>이름_016</t>
-  </si>
-  <si>
-    <t>이름_017</t>
-  </si>
-  <si>
-    <t>이름_018</t>
-  </si>
-  <si>
-    <t>이름_019</t>
-  </si>
-  <si>
-    <t>이름_020</t>
-  </si>
-  <si>
-    <t>이름_021</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BackGroundPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,44 +62,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 아름다운 호호행성이 있었습니다. </t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>BackGround/00000</t>
+  </si>
+  <si>
+    <t>호호행성에서 사는 7개 부족으로 이루어진 호호족들은 서로를 도우며 행복하게 살고 있었지요</t>
+  </si>
+  <si>
+    <t>하지만 어느날</t>
+  </si>
+  <si>
+    <t>호호행성의 하늘에 무언가가 다가왔습니다.</t>
+  </si>
+  <si>
+    <t>그것들은 크고 검었으며 이상한 소리를 내며 점점 호호행성으로 다가왔지요</t>
+  </si>
+  <si>
+    <t>그리고 이상한 물체들에서 생명체들이 내렸습니다.</t>
+  </si>
+  <si>
+    <t>그 생명체들은 자신들을 인간이라고 소개하며 호호족들에게 친철하게 말을 걸었습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그들은 자신들이 먼 행성에서 온 과학자이며 연구를 하기위해 우주를 돌아다니다 호호 행성을 발견했고 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아름다운 호호 행성을 보고 연구를 하고 싶다고 했습니다.</t>
+  </si>
+  <si>
+    <t>자신들과 다른 행성이 신기하다고 하며 말이죠</t>
+  </si>
+  <si>
+    <t>마음씨 착한 호호족들은 7부족끼리 회의를 열고 인간들을 환영했어요</t>
+  </si>
+  <si>
+    <t>하지만 누가 알았을까요 인간들이 사실은 자신들의 행성자원을 훔치기 위해 이곳에 왔다는 것을</t>
+  </si>
+  <si>
+    <t>호호 부족들도 모르는 사이 조금씩 하지만 빠르게 행성은 망가지기 시작했습니다.</t>
+  </si>
+  <si>
+    <t>그리고 이내 주호족 족장이 인간들을 의심하기 시작했습니다.</t>
+  </si>
+  <si>
+    <t>주호 부족장은 인간들이 온 이후 숲속의 동물들이 점점 사라지자 인간들을 의심했고</t>
+  </si>
+  <si>
+    <t>숲이 미묘하게 달라졌다는 것을 눈치챘습니다.</t>
+  </si>
+  <si>
+    <t>하지만 아직 심증만 있었기 때문에 주호 족장은 인간들을 감시하기로 마음을 먹었습니다.</t>
+  </si>
+  <si>
+    <t>그래서 주호 부족에서 가장 용감한 호리를 보내 인간들이 무엇을 꾸미고 있는지 확인하기로 했지요</t>
+  </si>
+  <si>
+    <t>호호족장</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호리야 </t>
+  </si>
+  <si>
     <t>Character/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00001</t>
+  </si>
+  <si>
+    <t>호리</t>
+  </si>
+  <si>
+    <t>네 족장님!</t>
+  </si>
+  <si>
+    <t>Character/00000</t>
+  </si>
+  <si>
+    <t>요즘 인간들의 움직임이 심상치가 않아보이는 구나</t>
+  </si>
+  <si>
+    <t>어쩌면 그들에게 처음부터 그들을 이 행성에 들이는게 안됬다는 생각이 들어….</t>
+  </si>
+  <si>
+    <t>호리 니가 인간들을 감시하여 무엇을 꾸미고 있는지 알려주렴</t>
+  </si>
+  <si>
+    <t>네 걱정 마세요 족장님!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음직스럽구나 허허허 </t>
+  </si>
+  <si>
+    <t>하지만 만약 조금이라도 우리 행성과 부족에게 해가 될 낌세가 보인다면 바로 나에게 말해주렴….</t>
+  </si>
+  <si>
+    <t>네! 걱정 마세요 족장님!!!</t>
+  </si>
+  <si>
+    <t>그럼 혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
+  </si>
+  <si>
+    <t>WASD를 이용하여 몸을 이동시키고</t>
+  </si>
+  <si>
+    <t>space bar를 눌러 여우 구슬을 발사하렴</t>
+  </si>
+  <si>
+    <t>여우 구슬이요? 그게 뭐죠?</t>
+  </si>
+  <si>
+    <t>우리 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 힘으로 부족을 지켜주렴 </t>
+  </si>
+  <si>
+    <t>네! 그럼 다녀오겠습니다</t>
+  </si>
+  <si>
+    <t>으으으 너무 아팠어</t>
+  </si>
+  <si>
+    <t>대체 저건 뭐지?</t>
+  </si>
+  <si>
+    <t>예전에는 저런게 없었는데….</t>
+  </si>
+  <si>
+    <t>일단 좀 더 살펴보고 족장님께 말씀드리러 가야겠어!</t>
+  </si>
+  <si>
+    <t>우리 숲에는 저런 이상한 것들이 없었는데</t>
+  </si>
+  <si>
+    <t>내가 생각한 것보다 양이 많았어….</t>
+  </si>
+  <si>
+    <t>아! 그리고 무언가로 숲이 막혀있었지….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여우구슬로도 부술 수 없었어 </t>
+  </si>
+  <si>
+    <t>역시 인간들이 무언가 꾸미고 있는것 같아</t>
+  </si>
+  <si>
+    <t>어서 마을로 돌아가ㅇ</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>위이이잉 위이이잉</t>
   </si>
   <si>
     <t>Character/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_001_Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제발 되라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>되겠지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소리지? 뭐가 위이잉거렸는데?</t>
+  </si>
+  <si>
+    <t>한 번 살펴봐야겠어</t>
+  </si>
+  <si>
+    <t>헉헉 저.. 저건 뭐지 움직이잖아!</t>
+  </si>
+  <si>
+    <t>살아있는 것 같지는 않았는데…</t>
+  </si>
+  <si>
+    <t>드론</t>
+  </si>
+  <si>
+    <t>위이이이이이이이잉!!!</t>
+  </si>
+  <si>
+    <t>소리가….더 커졌어!</t>
+  </si>
+  <si>
+    <t>근처에 얼마나 더 있는 거지?</t>
+  </si>
+  <si>
+    <t>… 확인하려 가야겠어!</t>
+  </si>
+  <si>
+    <t>헉헉 저 물체들 점점 더 빨라지잖아!</t>
+  </si>
+  <si>
+    <t>그러고 보니… 인간들이 타고 온 물체랑 뭔가 비슷…!</t>
+  </si>
+  <si>
+    <t>족장님 말씀대로 인간들이 한게 분명해!</t>
+  </si>
+  <si>
+    <t>설마 인간들은 우리를 공격하려는 거</t>
+  </si>
+  <si>
+    <t>쾅! 위이이..익 끼이익 쿵! 위이이익 익</t>
+  </si>
+  <si>
+    <t>저건 대체!</t>
+  </si>
+  <si>
+    <t>헉헉 물리쳤다!</t>
+  </si>
+  <si>
+    <t>그리고 확실히 알았어...인간들은 우리를 공격하려는 거야!</t>
+  </si>
+  <si>
+    <t>그렇지 않다면 저런 위험한 것을 만들리가 없지!</t>
+  </si>
+  <si>
+    <t>어서 마을로 돌아가 알려야겠어!</t>
+  </si>
+  <si>
+    <t>주호부족 마을</t>
+  </si>
+  <si>
+    <t>족장님!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호리야 돌아왔구나 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">네 족장님의 말씀이 옳았어요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">잘은 모르겠지만 인간들이 만든 물체들은 저희를 공격하고 행성을 다치게 하고 있어요!  </t>
+  </si>
+  <si>
+    <t>슬프게도 내 예상이 맞았구나….</t>
+  </si>
+  <si>
+    <t>네…</t>
+  </si>
+  <si>
+    <t>호리야 어서 다른 부족들에게도 알려야 한다.</t>
+  </si>
+  <si>
+    <t>일이 잘못되면 우리 행성에 전쟁이 일어날지도 모르겠구나….</t>
+  </si>
+  <si>
+    <t>to be continued</t>
   </si>
 </sst>
 </file>
@@ -558,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -593,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -602,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -615,17 +702,15 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -637,7 +722,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -647,17 +732,15 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -669,7 +752,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -677,19 +760,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -701,7 +782,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -711,17 +792,15 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -733,7 +812,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -741,19 +820,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -765,7 +842,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -775,17 +852,15 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -797,7 +872,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -805,19 +880,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -829,7 +902,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -839,17 +912,15 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -861,7 +932,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -869,19 +940,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -893,7 +962,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -903,17 +972,15 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -925,7 +992,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -933,19 +1000,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -957,7 +1022,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -967,17 +1032,15 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -989,7 +1052,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -997,19 +1060,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1021,7 +1082,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1031,17 +1092,15 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1053,7 +1112,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1061,19 +1120,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1085,7 +1142,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1095,17 +1152,15 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1117,7 +1172,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1125,19 +1180,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1149,7 +1202,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1157,19 +1210,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1178,10 +1229,10 @@
         <v>18</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1189,19 +1240,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1213,7 +1264,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1224,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1245,7 +1296,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1253,31 +1304,1723 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="I28" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>35</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>36</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>37</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>39</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>41</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>42</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>45</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
         <v>46</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="I47" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>47</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>48</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>49</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>50</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>51</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>52</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
         <v>53</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>54</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>55</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>56</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>57</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>58</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>59</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>60</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>61</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>62</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>63</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>64</v>
+      </c>
+      <c r="I65" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>65</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>66</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>67</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>68</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>69</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>70</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>71</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>72</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>73</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>74</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3166646-990C-4090-9728-631E0B0546D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A0CD4-0078-489B-811D-DD9B29EDB071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A0CD4-0078-489B-811D-DD9B29EDB071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC3CFE-ECEE-45F6-826E-7654FB6DD016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="132">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,72 +62,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 아름다운 호호행성이 있었습니다. </t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>BackGround/00000</t>
   </si>
   <si>
-    <t>호호행성에서 사는 7개 부족으로 이루어진 호호족들은 서로를 도우며 행복하게 살고 있었지요</t>
-  </si>
-  <si>
-    <t>하지만 어느날</t>
-  </si>
-  <si>
-    <t>호호행성의 하늘에 무언가가 다가왔습니다.</t>
-  </si>
-  <si>
-    <t>그것들은 크고 검었으며 이상한 소리를 내며 점점 호호행성으로 다가왔지요</t>
-  </si>
-  <si>
-    <t>그리고 이상한 물체들에서 생명체들이 내렸습니다.</t>
-  </si>
-  <si>
-    <t>그 생명체들은 자신들을 인간이라고 소개하며 호호족들에게 친철하게 말을 걸었습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그들은 자신들이 먼 행성에서 온 과학자이며 연구를 하기위해 우주를 돌아다니다 호호 행성을 발견했고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아름다운 호호 행성을 보고 연구를 하고 싶다고 했습니다.</t>
-  </si>
-  <si>
-    <t>자신들과 다른 행성이 신기하다고 하며 말이죠</t>
-  </si>
-  <si>
-    <t>마음씨 착한 호호족들은 7부족끼리 회의를 열고 인간들을 환영했어요</t>
-  </si>
-  <si>
-    <t>하지만 누가 알았을까요 인간들이 사실은 자신들의 행성자원을 훔치기 위해 이곳에 왔다는 것을</t>
-  </si>
-  <si>
-    <t>호호 부족들도 모르는 사이 조금씩 하지만 빠르게 행성은 망가지기 시작했습니다.</t>
-  </si>
-  <si>
-    <t>그리고 이내 주호족 족장이 인간들을 의심하기 시작했습니다.</t>
-  </si>
-  <si>
-    <t>주호 부족장은 인간들이 온 이후 숲속의 동물들이 점점 사라지자 인간들을 의심했고</t>
-  </si>
-  <si>
-    <t>숲이 미묘하게 달라졌다는 것을 눈치챘습니다.</t>
-  </si>
-  <si>
-    <t>하지만 아직 심증만 있었기 때문에 주호 족장은 인간들을 감시하기로 마음을 먹었습니다.</t>
-  </si>
-  <si>
-    <t>그래서 주호 부족에서 가장 용감한 호리를 보내 인간들이 무엇을 꾸미고 있는지 확인하기로 했지요</t>
-  </si>
-  <si>
     <t>호호족장</t>
   </si>
   <si>
-    <t xml:space="preserve">호리야 </t>
-  </si>
-  <si>
     <t>Character/00001</t>
   </si>
   <si>
@@ -137,178 +80,458 @@
     <t>호리</t>
   </si>
   <si>
-    <t>네 족장님!</t>
-  </si>
-  <si>
     <t>Character/00000</t>
   </si>
   <si>
-    <t>요즘 인간들의 움직임이 심상치가 않아보이는 구나</t>
-  </si>
-  <si>
-    <t>어쩌면 그들에게 처음부터 그들을 이 행성에 들이는게 안됬다는 생각이 들어….</t>
-  </si>
-  <si>
-    <t>호리 니가 인간들을 감시하여 무엇을 꾸미고 있는지 알려주렴</t>
-  </si>
-  <si>
-    <t>네 걱정 마세요 족장님!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음직스럽구나 허허허 </t>
-  </si>
-  <si>
-    <t>하지만 만약 조금이라도 우리 행성과 부족에게 해가 될 낌세가 보인다면 바로 나에게 말해주렴….</t>
-  </si>
-  <si>
-    <t>네! 걱정 마세요 족장님!!!</t>
-  </si>
-  <si>
-    <t>그럼 혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
-  </si>
-  <si>
-    <t>WASD를 이용하여 몸을 이동시키고</t>
-  </si>
-  <si>
-    <t>space bar를 눌러 여우 구슬을 발사하렴</t>
-  </si>
-  <si>
     <t>여우 구슬이요? 그게 뭐죠?</t>
   </si>
   <si>
-    <t>우리 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
+    <t>네! 그럼 다녀오겠습니다</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Character/00002</t>
+  </si>
+  <si>
+    <t>드론</t>
+  </si>
+  <si>
+    <t>소리가….더 커졌어!</t>
+  </si>
+  <si>
+    <t>근처에 얼마나 더 있는 거지?</t>
+  </si>
+  <si>
+    <t>to be continued</t>
+  </si>
+  <si>
+    <t>호호야 돌아왔느냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗 족장님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시 산책을 나갔다 왔어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랬구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님? 무슨일 있으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 마을 주변에서 이상한 것을 보지는 못했니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 것이요? 아뇨 보지 못했어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에휴… 그렇구나.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 괜히 걱정하는 건가…</t>
+  </si>
+  <si>
+    <t>걱정하는게 있으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…그래 호호야 최근 인간이라고 하는 생명체들이 우리 행성에 온 것은 알고 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 저희 행성이 아름답다고 잠시 머물면서 조사해도 되냐고 물었잖아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 저희는 행성을 다치게 하지 않는 선에서 허락했구요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 나는 요즘 인간들이 무척이나 의심스럽구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들이 의심스럽다구요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 최근 무언가 달라진 느낌을 많아 받는구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속에 동물들이 많이 보이지 않고 무엇보다 이상한 소음이 늘었어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호야 내가 부탁하나 해도 되겠느냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">숲속을 순찰하면서 이상한 것들이 있는지 조사하고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들이 숲속의 변화에 상관이 있는지 알아봐주렴…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 괜한 의심을 하는 걸지도 모르지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 그럼요! 족장님의 부탁이신걸요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 뭘 도와드리면 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 인간들이 의심스러우니 인간을 마주친다면 숨으려무나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 그럼 다녀오겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시만 호호야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지킬 수 있는 방법이요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 WASD를 이용하여 몸을 이동시키고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space Bar를 눌러 여우 구슬을 발사하렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">이 힘으로 부족을 지켜주렴 </t>
-  </si>
-  <si>
-    <t>네! 그럼 다녀오겠습니다</t>
-  </si>
-  <si>
-    <t>으으으 너무 아팠어</t>
-  </si>
-  <si>
-    <t>대체 저건 뭐지?</t>
-  </si>
-  <si>
-    <t>예전에는 저런게 없었는데….</t>
-  </si>
-  <si>
-    <t>일단 좀 더 살펴보고 족장님께 말씀드리러 가야겠어!</t>
-  </si>
-  <si>
-    <t>우리 숲에는 저런 이상한 것들이 없었는데</t>
-  </si>
-  <si>
-    <t>내가 생각한 것보다 양이 많았어….</t>
-  </si>
-  <si>
-    <t>아! 그리고 무언가로 숲이 막혀있었지….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여우구슬로도 부술 수 없었어 </t>
-  </si>
-  <si>
-    <t>역시 인간들이 무언가 꾸미고 있는것 같아</t>
-  </si>
-  <si>
-    <t>어서 마을로 돌아가ㅇ</t>
-  </si>
-  <si>
-    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 행성의 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으 아파라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속에 왜 저런게 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 모르니 주변을 좀 더 살펴봐야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 마을로 돌아가서 족장님께 말씀드려야(쫑긋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>위이이잉 위이이잉</t>
-  </si>
-  <si>
-    <t>Character/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무슨 소리지? 뭐가 위이잉거렸는데?</t>
-  </si>
-  <si>
-    <t>한 번 살펴봐야겠어</t>
-  </si>
-  <si>
-    <t>헉헉 저.. 저건 뭐지 움직이잖아!</t>
-  </si>
-  <si>
-    <t>살아있는 것 같지는 않았는데…</t>
-  </si>
-  <si>
-    <t>드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 저 소리가 무엇인지만 확인하고 가야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님 의심대로 인간들이 한건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">헉헉 내 생각보다 양이 많았어, 저런 위험하고 이상한 물건들이 숲속에 널려있고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어떤 물체가 숲속을 막고 있었지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬로도 부술 수 없고... 다른 물건들과 다르게 아프진 않았지만 수상해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실히 무슨일이 벌어지고 있는 것 확실한것 같네...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐지? 기존것들과는 다르게 움직였어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어떻게 해야하지 으으 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 어서 마을로 돌아가ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 조심히 마을로 돌아가ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아 들켰다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉헉헉 정말 힘들었어 그리고 저 물체들 점점 더 빨리져서 더 힘들었지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 주변에 있는 것들은 다 처리 한 것 같으니까 이젠 정말 돌아가야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>위이이이이이이이잉!!!</t>
-  </si>
-  <si>
-    <t>소리가….더 커졌어!</t>
-  </si>
-  <si>
-    <t>근처에 얼마나 더 있는 거지?</t>
-  </si>
-  <si>
-    <t>… 확인하려 가야겠어!</t>
-  </si>
-  <si>
-    <t>헉헉 저 물체들 점점 더 빨라지잖아!</t>
-  </si>
-  <si>
-    <t>그러고 보니… 인간들이 타고 온 물체랑 뭔가 비슷…!</t>
-  </si>
-  <si>
-    <t>족장님 말씀대로 인간들이 한게 분명해!</t>
-  </si>
-  <si>
-    <t>설마 인간들은 우리를 공격하려는 거</t>
-  </si>
-  <si>
-    <t>쾅! 위이이..익 끼이익 쿵! 위이이익 익</t>
-  </si>
-  <si>
-    <t>저건 대체!</t>
-  </si>
-  <si>
-    <t>헉헉 물리쳤다!</t>
-  </si>
-  <si>
-    <t>그리고 확실히 알았어...인간들은 우리를 공격하려는 거야!</t>
-  </si>
-  <si>
-    <t>그렇지 않다면 저런 위험한 것을 만들리가 없지!</t>
-  </si>
-  <si>
-    <t>어서 마을로 돌아가 알려야겠어!</t>
-  </si>
-  <si>
-    <t>주호부족 마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위우우웅 위이이이이이잉!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐빅 자원.. 수집 한다… 자우언으…ㅅ우이집…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말소리?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가 있나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">말을 이상하게 하긴 하지만 누군가 다친 것 수도 있으니까 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와주려 가야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체 숲속에서 무슨일이 일어나고 있는거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 이렇게 위험한 것들이 많아진거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 호호족들만 있었을때는 이런일이 일어나지 않았어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 정말 족장님의 의심대로 인간들이 벌인 짓인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 행성 @$^%&amp;$ 수집#%@$%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 말소리가 들리잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번엔 몰래 접근해야 겠어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103-711호가 망가졌군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게 원래도 좀 고장이 났어지만 이정도는 아니였는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쨌든 이 행성의 자원에 대해서는 거의 다 조사했어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래? 결과는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 지구로 돌아가서도 충분이 사용이 가능한 자원들이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 에너지 고갈 사태에 충분한 해결책이 될 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 이 행성의 원주민들이 알아차리기 전에 최대한 많은 자원을 채굴하자고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하! 저 착해빠지고 멍청한 놈들은 우리의 허무맹랑한 소리도 믿었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 만약 원주민들이 알게 되면 어떻게하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하긴 그렇긴 하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이제 본부로 돌아가자 이 지역에 관한 정보는 거의 다 얻었어 이제 다른 지역으로 가도 될 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 곧 철수하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스락!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 무슨 소리 못들었나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리? 뭐가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 아니다 잘못 들은 모양이군 가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말도 안돼… 우리 행성을 자원을 빼앗고 여차하면 공격하겠다니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 이 사실을 족장님께 말씀드려야지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주호마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들이 돌아가고 난 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>족장님!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호리야 돌아왔구나 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">네 족장님의 말씀이 옳았어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘은 모르겠지만 인간들이 만든 물체들은 저희를 공격하고 행성을 다치게 하고 있어요!  </t>
-  </si>
-  <si>
-    <t>슬프게도 내 예상이 맞았구나….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호야 돌아왔구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네 족장님 인간… 마을이 왜 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 물체들이 날라와 우리를 공격했단다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 걱정 말거라 여우구슬의 힘으로 부족이 힘을 합쳐 물리쳤으니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님 족장님 의심이 맞았어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인간들은 저의 행성의 자원을 훔치려 온거였어요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그래서 숲속에 이상한 것들을 만들었고 무엇보다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 만약 알게 되더라도 우리가 가지고 있는 장비들을 사용해 모두 처리하면 그만이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 저희가 자기들의 계획을 알게되면 저희를 다 처리할 거라고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 알려줘서 고맙구나 호호야 수고했단다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>네…</t>
-  </si>
-  <si>
-    <t>호리야 어서 다른 부족들에게도 알려야 한다.</t>
-  </si>
-  <si>
-    <t>일이 잘못되면 우리 행성에 전쟁이 일어날지도 모르겠구나….</t>
-  </si>
-  <si>
-    <t>to be continued</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 우리가 가진 정보가 너무 부족하니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호야 일단 인간들의 기지라는 곳을 조사해보자꾸나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 만약 일이 커진다면… 모든 부족들을 불러 모아 인간들과 전쟁을 할 수 도 있겠구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 왔는데 괜찮겠니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 저의 행성과 부족들을 위한 일인 걸요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 준비를 하자꾸나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들의 기지로 갈 준비를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 족장님 그럼 제가 인간들의 기지 위치를 파악하고 올께요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래… 다른 부족장들과 상의해서 그들을 이 행성에 머물수 있도록 허락했지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -645,17 +868,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="4" max="4" width="60.875" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -704,13 +927,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -722,7 +945,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -734,13 +957,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -752,7 +975,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -764,13 +987,13 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -782,7 +1005,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -790,17 +1013,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -812,7 +1035,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -824,13 +1047,13 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -842,7 +1065,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -850,17 +1073,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -872,7 +1095,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -884,13 +1107,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -902,7 +1125,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -910,17 +1133,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -932,7 +1155,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -940,17 +1163,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -962,7 +1185,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -974,13 +1197,13 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -992,7 +1215,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1000,17 +1223,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1022,7 +1245,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1034,13 +1257,13 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1052,7 +1275,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1064,13 +1287,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1082,7 +1305,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1090,17 +1313,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1112,7 +1335,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1124,13 +1347,13 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1142,7 +1365,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1154,13 +1377,13 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1172,7 +1395,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1184,13 +1407,13 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1202,7 +1425,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1214,13 +1437,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1232,7 +1455,7 @@
         <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1243,16 +1466,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1264,7 +1487,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1275,16 +1498,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1296,7 +1519,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1307,16 +1530,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1328,7 +1551,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1339,16 +1562,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1360,7 +1583,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1371,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1392,7 +1615,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1403,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1424,7 +1647,7 @@
         <v>-100</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1435,16 +1658,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1456,7 +1679,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1467,16 +1690,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1488,7 +1711,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1499,16 +1722,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1520,7 +1743,7 @@
         <v>-100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1531,16 +1754,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1552,7 +1775,7 @@
         <v>-100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1563,16 +1786,16 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1584,7 +1807,7 @@
         <v>-100</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1595,16 +1818,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1616,7 +1839,7 @@
         <v>-100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1627,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1648,7 +1871,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1659,16 +1882,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1680,7 +1903,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1691,16 +1914,16 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1712,7 +1935,7 @@
         <v>-100</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1723,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1744,7 +1967,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1755,16 +1978,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1776,7 +1999,7 @@
         <v>-100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1787,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1808,7 +2031,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1819,16 +2042,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1840,7 +2063,7 @@
         <v>-100</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1851,16 +2074,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1872,7 +2095,7 @@
         <v>-100</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1883,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1904,7 +2127,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1915,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1936,7 +2159,7 @@
         <v>-100</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1947,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1968,7 +2191,7 @@
         <v>-100</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1979,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2000,7 +2223,7 @@
         <v>-100</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2011,16 +2234,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2032,7 +2255,7 @@
         <v>-100</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2043,16 +2266,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2064,7 +2287,7 @@
         <v>-100</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2075,16 +2298,16 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2096,7 +2319,7 @@
         <v>-100</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2107,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2128,7 +2351,7 @@
         <v>-100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2139,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2160,7 +2383,7 @@
         <v>-100</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2171,16 +2394,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2192,7 +2415,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2203,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2224,7 +2447,7 @@
         <v>-100</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2235,16 +2458,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2256,7 +2479,7 @@
         <v>-100</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2267,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2288,7 +2511,7 @@
         <v>-100</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2299,16 +2522,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2320,7 +2543,7 @@
         <v>-100</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2331,16 +2554,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2352,7 +2575,7 @@
         <v>-100</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2363,16 +2586,16 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2384,7 +2607,7 @@
         <v>-100</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2395,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2416,7 +2639,7 @@
         <v>-100</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2427,16 +2650,16 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2448,7 +2671,7 @@
         <v>-100</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2459,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2480,7 +2703,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2491,16 +2714,16 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2512,7 +2735,7 @@
         <v>-100</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2523,16 +2746,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2544,7 +2767,7 @@
         <v>-100</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2555,16 +2778,16 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2576,7 +2799,7 @@
         <v>-100</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2587,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2608,7 +2831,7 @@
         <v>-100</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2619,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2640,7 +2863,7 @@
         <v>-100</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2651,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2672,7 +2895,7 @@
         <v>-100</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2687,10 +2910,10 @@
         <v>83</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2702,7 +2925,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2713,16 +2936,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2734,7 +2957,7 @@
         <v>-100</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2745,16 +2968,16 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2766,7 +2989,7 @@
         <v>-100</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2777,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2798,7 +3021,7 @@
         <v>-100</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2809,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2830,7 +3053,7 @@
         <v>-100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -2841,16 +3064,16 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -2862,7 +3085,7 @@
         <v>-100</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -2873,16 +3096,16 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2894,7 +3117,7 @@
         <v>-100</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -2905,16 +3128,16 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -2926,7 +3149,7 @@
         <v>-100</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -2937,16 +3160,16 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -2958,7 +3181,7 @@
         <v>-100</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -2969,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -2990,7 +3213,7 @@
         <v>-100</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3002,13 +3225,13 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -3020,8 +3243,971 @@
         <v>-100</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>75</v>
+      </c>
+      <c r="I76" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>76</v>
+      </c>
+      <c r="I77" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>77</v>
+      </c>
+      <c r="I78" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>78</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>79</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>80</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>81</v>
+      </c>
+      <c r="I82" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>82</v>
+      </c>
+      <c r="I83" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>83</v>
+      </c>
+      <c r="I84" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>84</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>85</v>
+      </c>
+      <c r="I86" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>86</v>
+      </c>
+      <c r="I87" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>87</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>88</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>89</v>
+      </c>
+      <c r="I90" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>90</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>91</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>92</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>93</v>
+      </c>
+      <c r="I94" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>94</v>
+      </c>
+      <c r="I95" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>95</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>96</v>
+      </c>
+      <c r="I97" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>97</v>
+      </c>
+      <c r="I98" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>98</v>
+      </c>
+      <c r="I99" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>99</v>
+      </c>
+      <c r="I100" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>100</v>
+      </c>
+      <c r="I101" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>101</v>
+      </c>
+      <c r="I102" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>102</v>
+      </c>
+      <c r="I103" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>103</v>
+      </c>
+      <c r="I104" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>104</v>
+      </c>
+      <c r="I105" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>105</v>
+      </c>
+      <c r="I106" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>106</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>107</v>
+      </c>
+      <c r="I108" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>108</v>
+      </c>
+      <c r="I109" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>109</v>
+      </c>
+      <c r="I110" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>110</v>
+      </c>
+      <c r="I111" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>111</v>
+      </c>
+      <c r="I112" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>112</v>
+      </c>
+      <c r="I113" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I140" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC3CFE-ECEE-45F6-826E-7654FB6DD016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC125A-45CC-4D58-9373-6F011EE3F7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="133">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,469 +68,479 @@
     <t>BackGround/00000</t>
   </si>
   <si>
-    <t>호호족장</t>
+    <t>BackGround/00001</t>
+  </si>
+  <si>
+    <t>Character/00000</t>
+  </si>
+  <si>
+    <t>네! 그럼 다녀오겠습니다</t>
+  </si>
+  <si>
+    <t>소리가….더 커졌어!</t>
+  </si>
+  <si>
+    <t>근처에 얼마나 더 있는 거지?</t>
+  </si>
+  <si>
+    <t>to be continued</t>
+  </si>
+  <si>
+    <t>호호야 돌아왔느냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗 족장님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시 산책을 나갔다 왔어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랬구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님? 무슨일 있으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 마을 주변에서 이상한 것을 보지는 못했니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 것이요? 아뇨 보지 못했어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에휴… 그렇구나.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 괜히 걱정하는 건가…</t>
+  </si>
+  <si>
+    <t>걱정하는게 있으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…그래 호호야 최근 인간이라고 하는 생명체들이 우리 행성에 온 것은 알고 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 저희 행성이 아름답다고 잠시 머물면서 조사해도 되냐고 물었잖아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 저희는 행성을 다치게 하지 않는 선에서 허락했구요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 나는 요즘 인간들이 무척이나 의심스럽구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들이 의심스럽다구요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 최근 무언가 달라진 느낌을 많아 받는구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속에 동물들이 많이 보이지 않고 무엇보다 이상한 소음이 늘었어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호야 내가 부탁하나 해도 되겠느냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">숲속을 순찰하면서 이상한 것들이 있는지 조사하고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들이 숲속의 변화에 상관이 있는지 알아봐주렴…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 괜한 의심을 하는 걸지도 모르지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 그럼요! 족장님의 부탁이신걸요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 뭘 도와드리면 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시만 호호야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지킬 수 있는 방법이요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 WASD를 이용하여 몸을 이동시키고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space Bar를 눌러 여우 구슬을 발사하렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 행성의 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으 아파라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속에 왜 저런게 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 모르니 주변을 좀 더 살펴봐야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 마을로 돌아가서 족장님께 말씀드려야(쫑긋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위이이잉 위이이잉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소리지? 뭐가 위이잉거렸는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 저 소리가 무엇인지만 확인하고 가야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님 의심대로 인간들이 한건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">헉헉 내 생각보다 양이 많았어, 저런 위험하고 이상한 물건들이 숲속에 널려있고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어떤 물체가 숲속을 막고 있었지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬로도 부술 수 없고... 다른 물건들과 다르게 아프진 않았지만 수상해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실히 무슨일이 벌어지고 있는 것 확실한것 같네...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐지? 기존것들과는 다르게 움직였어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어떻게 해야하지 으으 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 어서 마을로 돌아가ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 조심히 마을로 돌아가ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아 들켰다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉헉헉 정말 힘들었어 그리고 저 물체들 점점 더 빨리져서 더 힘들었지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 주변에 있는 것들은 다 처리 한 것 같으니까 이젠 정말 돌아가야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위이이이이이이이잉!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위우우웅 위이이이이이잉!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐빅 자원.. 수집 한다… 자우언으…ㅅ우이집…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말소리?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가 있나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">말을 이상하게 하긴 하지만 누군가 다친 것 수도 있으니까 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와주려 가야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 이렇게 위험한 것들이 많아진거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 호호족들만 있었을때는 이런일이 일어나지 않았어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 정말 족장님의 의심대로 인간들이 벌인 짓인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 행성 @$^%&amp;$ 수집#%@$%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 말소리가 들리잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게 원래도 좀 고장이 났어지만 이정도는 아니였는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쨌든 이 행성의 자원에 대해서는 거의 다 조사했어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래? 결과는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 지구로 돌아가서도 충분이 사용이 가능한 자원들이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 에너지 고갈 사태에 충분한 해결책이 될 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 이 행성의 원주민들이 알아차리기 전에 최대한 많은 자원을 채굴하자고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하! 저 착해빠지고 멍청한 놈들은 우리의 허무맹랑한 소리도 믿었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 만약 원주민들이 알게 되면 어떻게하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 곧 철수하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 무슨 소리 못들었나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리? 뭐가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 아니다 잘못 들은 모양이군 가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말도 안돼… 우리 행성을 자원을 빼앗고 여차하면 공격하겠다니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 이 사실을 족장님께 말씀드려야지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주호마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들이 돌아가고 난 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호야 돌아왔구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 물체들이 날라와 우리를 공격했단다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 걱정 말거라 여우구슬의 힘으로 부족이 힘을 합쳐 물리쳤으니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그래서 숲속에 이상한 것들을 만들었고 무엇보다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 만약 알게 되더라도 우리가 가지고 있는 장비들을 사용해 모두 처리하면 그만이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 알려줘서 고맙구나 호호야 수고했단다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래… 다른 부족장들과 상의해서 그들을 이 행성에 머물수 있도록 허락했지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 위험할 수 있으니 인간을 마주친다면 숨으려무나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 그럼 다녀오겠ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬이요? 그게 뭐죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 힘으로 자신과, 부족을 지켜주렴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 족장님 인간… 마을이 왜 망가진거죠?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다행이다… 아 맞다. 족장님 의심이 맞았어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인간들은 저의 행성을 연구하는 것이 아닌 자원을 훔치려 온거였어요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하긴 그렇긴 하지 그럼 이제 본부로 돌아가자 이 지역에 관한 정보는 거의 다 얻었어 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이제 다른 지역으로 가도 될 것 같아 이곳을 마지막으로 이 행성의 지역별 자원에 대한 정보는 다 얻었어  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 본부로 돌아가서 본격적으로 자원을 채굴하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇103-1177호가 망가졌군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호야 위험하지만 인간들은 본부에 대해 조사를 해봐야겠구나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 우리가 인간들에 대해 가진 정보가 너무 부족하니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 최악의 상황이 막치면 이 행성의 모든 부족들을 불러 모아 인간들과 전쟁을 할 수 도 있겠구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일단 마을을 정비하자꾸나 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 준비 해야지 앞으로 우리 부족에게 닥칠 일을…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번엔 몰래 접근 해야겠어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만약 저희가 자기들의 계획을 알게되면 저희를 다 처리할 거라고… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 본부로 돌아간 다음 다른 지역으로 옮겨 본격적으로 자원을 채굴할 것이라고 했어요</t>
+  </si>
+  <si>
+    <t>네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Character/00001</t>
-  </si>
-  <si>
-    <t>BackGround/00001</t>
-  </si>
-  <si>
-    <t>호리</t>
-  </si>
-  <si>
-    <t>Character/00000</t>
-  </si>
-  <si>
-    <t>여우 구슬이요? 그게 뭐죠?</t>
-  </si>
-  <si>
-    <t>네! 그럼 다녀오겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주호 족장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">말까지 하는 이상한 물체.. 정말 위험했어. 대체 숲속에서 무슨일이 일어나고 있는거야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>???</t>
-  </si>
-  <si>
-    <t>Character/00002</t>
-  </si>
-  <si>
-    <t>드론</t>
-  </si>
-  <si>
-    <t>소리가….더 커졌어!</t>
-  </si>
-  <si>
-    <t>근처에 얼마나 더 있는 거지?</t>
-  </si>
-  <si>
-    <t>to be continued</t>
-  </si>
-  <si>
-    <t>호호야 돌아왔느냐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앗 족장님!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠시 산책을 나갔다 왔어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랬구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>족장님? 무슨일 있으세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 마을 주변에서 이상한 것을 보지는 못했니?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 것이요? 아뇨 보지 못했어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">에휴… 그렇구나.. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 괜히 걱정하는 건가…</t>
-  </si>
-  <si>
-    <t>걱정하는게 있으세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…그래 호호야 최근 인간이라고 하는 생명체들이 우리 행성에 온 것은 알고 있지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 저희 행성이 아름답다고 잠시 머물면서 조사해도 되냐고 물었잖아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 저희는 행성을 다치게 하지 않는 선에서 허락했구요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 나는 요즘 인간들이 무척이나 의심스럽구나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간들이 의심스럽다구요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 최근 무언가 달라진 느낌을 많아 받는구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲속에 동물들이 많이 보이지 않고 무엇보다 이상한 소음이 늘었어…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호야 내가 부탁하나 해도 되겠느냐?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">숲속을 순찰하면서 이상한 것들이 있는지 조사하고 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간들이 숲속의 변화에 상관이 있는지 알아봐주렴…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 괜한 의심을 하는 걸지도 모르지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 그럼요! 족장님의 부탁이신걸요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 뭘 도와드리면 될까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 인간들이 의심스러우니 인간을 마주친다면 숨으려무나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네! 그럼 다녀오겠습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠시만 호호야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지킬 수 있는 방법이요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 WASD를 이용하여 몸을 이동시키고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Space Bar를 눌러 여우 구슬을 발사하렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이 힘으로 부족을 지켜주렴 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 행성의 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으으 아파라…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲속에 왜 저런게 있지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 모르니 주변을 좀 더 살펴봐야겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 마을로 돌아가서 족장님께 말씀드려야(쫑긋)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위이이잉 위이이잉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 소리지? 뭐가 위이잉거렸는데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠… 저 소리가 무엇인지만 확인하고 가야겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>족장님 의심대로 인간들이 한건가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">헉헉 내 생각보다 양이 많았어, 저런 위험하고 이상한 물건들이 숲속에 널려있고 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어떤 물체가 숲속을 막고 있었지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우 구슬로도 부술 수 없고... 다른 물건들과 다르게 아프진 않았지만 수상해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확실히 무슨일이 벌어지고 있는 것 확실한것 같네...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐지? 기존것들과는 다르게 움직였어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어떻게 해야하지 으으 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 어서 마을로 돌아가ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 조심히 마을로 돌아가ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으아 들켰다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헉헉헉 정말 힘들었어 그리고 저 물체들 점점 더 빨리져서 더 힘들었지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래도 주변에 있는 것들은 다 처리 한 것 같으니까 이젠 정말 돌아가야겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위이이이이이이이잉!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위우우웅 위이이이이이잉!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삐빅 자원.. 수집 한다… 자우언으…ㅅ우이집…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말소리?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누군가 있나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">말을 이상하게 하긴 하지만 누군가 다친 것 수도 있으니까 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도와주려 가야겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체 숲속에서 무슨일이 일어나고 있는거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 이렇게 위험한 것들이 많아진거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 호호족들만 있었을때는 이런일이 일어나지 않았어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 정말 족장님의 의심대로 인간들이 벌인 짓인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 행성 @$^%&amp;$ 수집#%@$%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>또 말소리가 들리잖아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번엔 몰래 접근해야 겠어…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103-711호가 망가졌군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러게 원래도 좀 고장이 났어지만 이정도는 아니였는데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쨌든 이 행성의 자원에 대해서는 거의 다 조사했어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래? 결과는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 지구로 돌아가서도 충분이 사용이 가능한 자원들이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지구의 에너지 고갈 사태에 충분한 해결책이 될 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 그럼 이 행성의 원주민들이 알아차리기 전에 최대한 많은 자원을 채굴하자고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하! 저 착해빠지고 멍청한 놈들은 우리의 허무맹랑한 소리도 믿었어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 만약 원주민들이 알게 되면 어떻게하지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하긴 그렇긴 하지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 이제 본부로 돌아가자 이 지역에 관한 정보는 거의 다 얻었어 이제 다른 지역으로 가도 될 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 그럼 곧 철수하지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바스락!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방금 무슨 소리 못들었나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리? 뭐가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠… 아니다 잘못 들은 모양이군 가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말도 안돼… 우리 행성을 자원을 빼앗고 여차하면 공격하겠다니…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서 이 사실을 족장님께 말씀드려야지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주호마을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간들이 돌아가고 난 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>족장님!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호야 돌아왔구나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">네 족장님 인간… 마을이 왜 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 물체들이 날라와 우리를 공격했단다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 걱정 말거라 여우구슬의 힘으로 부족이 힘을 합쳐 물리쳤으니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>족장님 족장님 의심이 맞았어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">인간들은 저의 행성의 자원을 훔치려 온거였어요 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">그래서 숲속에 이상한 것들을 만들었고 무엇보다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 만약 알게 되더라도 우리가 가지고 있는 장비들을 사용해 모두 처리하면 그만이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만약 저희가 자기들의 계획을 알게되면 저희를 다 처리할 거라고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 알려줘서 고맙구나 호호야 수고했단다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 우리가 가진 정보가 너무 부족하니…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호야 일단 인간들의 기지라는 곳을 조사해보자꾸나..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 만약 일이 커진다면… 모든 부족들을 불러 모아 인간들과 전쟁을 할 수 도 있겠구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방금 왔는데 괜찮겠니?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 저의 행성과 부족들을 위한 일인 걸요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 그럼 준비를 하자꾸나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간들의 기지로 갈 준비를</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 족장님 그럼 제가 인간들의 기지 위치를 파악하고 올께요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래… 다른 부족장들과 상의해서 그들을 이 행성에 머물수 있도록 허락했지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스락! (헉!)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +881,7 @@
   <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,12 +935,14 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -955,12 +967,14 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -985,12 +999,14 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1015,12 +1031,14 @@
       <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1045,12 +1063,14 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -1075,12 +1095,14 @@
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1105,12 +1127,14 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1135,12 +1159,14 @@
       <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1165,12 +1191,14 @@
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1195,12 +1223,14 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1225,12 +1255,14 @@
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1255,12 +1287,14 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1285,12 +1319,14 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1315,12 +1351,14 @@
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1343,14 +1381,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1375,12 +1415,14 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1403,14 +1445,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1433,14 +1477,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1463,19 +1509,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1498,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1530,10 +1576,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1562,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1591,16 +1637,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1626,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1655,16 +1701,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1690,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -1722,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1754,10 +1800,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -1783,16 +1829,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1818,10 +1864,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -1850,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1879,16 +1925,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -1914,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -1946,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1978,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -2007,16 +2053,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
@@ -2039,16 +2085,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -2071,19 +2117,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2103,19 +2149,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2135,16 +2181,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>10</v>
@@ -2167,16 +2213,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
@@ -2199,16 +2245,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
@@ -2231,16 +2277,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
@@ -2263,16 +2309,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -2298,13 +2344,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>10</v>
@@ -2330,14 +2376,12 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
@@ -2359,19 +2403,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2391,19 +2435,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2423,16 +2467,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -2458,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>10</v>
@@ -2487,16 +2531,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>10</v>
@@ -2522,14 +2566,12 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
         <v>10</v>
       </c>
@@ -2551,19 +2593,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2583,19 +2625,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2615,16 +2657,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>10</v>
@@ -2650,14 +2692,12 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2679,16 +2719,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>10</v>
@@ -2714,13 +2754,13 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>10</v>
@@ -2743,19 +2783,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2778,16 +2818,14 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2807,16 +2845,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
@@ -2839,16 +2877,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>10</v>
@@ -2871,16 +2909,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>10</v>
@@ -2903,14 +2941,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D65" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>10</v>
@@ -2933,16 +2973,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>10</v>
@@ -2968,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -2997,16 +3037,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>10</v>
@@ -3029,16 +3069,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>10</v>
@@ -3061,17 +3101,15 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
         <v>10</v>
       </c>
@@ -3093,16 +3131,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>10</v>
@@ -3128,10 +3166,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -3157,17 +3195,15 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
         <v>10</v>
       </c>
@@ -3189,17 +3225,15 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3221,15 +3255,15 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D75" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
         <v>10</v>
       </c>
@@ -3250,8 +3284,14 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D76" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>10</v>
@@ -3273,8 +3313,14 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D77" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
@@ -3296,8 +3342,14 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D78" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>10</v>
@@ -3319,8 +3371,14 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D79" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>10</v>
@@ -3342,8 +3400,14 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D80" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -3365,8 +3429,14 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D81" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -3388,8 +3458,14 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D82" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -3411,8 +3487,14 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D83" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3434,8 +3516,14 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D84" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3457,8 +3545,14 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D85" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3480,8 +3574,14 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D86" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3503,8 +3603,17 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D87" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3526,8 +3635,14 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D88" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3549,8 +3664,14 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D89" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
@@ -3572,8 +3693,14 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D90" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
@@ -3595,8 +3722,11 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
       <c r="D91" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>10</v>
@@ -3618,8 +3748,17 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D92" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
@@ -3641,8 +3780,17 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D93" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
@@ -3664,8 +3812,11 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
       <c r="D94" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>10</v>
@@ -3687,8 +3838,17 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>126</v>
+      </c>
       <c r="D95" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>10</v>
@@ -3710,8 +3870,17 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D96" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>10</v>
@@ -3733,8 +3902,17 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D97" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>10</v>
@@ -3756,8 +3934,17 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D98" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>10</v>
@@ -3779,8 +3966,17 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D99" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>10</v>
@@ -3802,8 +3998,17 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D100" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>10</v>
@@ -3825,8 +4030,17 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D101" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>10</v>
@@ -3848,8 +4062,17 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D102" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
@@ -3871,8 +4094,17 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D103" s="1" t="s">
         <v>121</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
@@ -3894,8 +4126,17 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D104" t="s">
         <v>122</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>10</v>
@@ -3917,7 +4158,16 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D105" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -3940,8 +4190,17 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D106" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>10</v>
@@ -3963,8 +4222,17 @@
       <c r="A107" s="1">
         <v>105</v>
       </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D107" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>10</v>
@@ -3986,8 +4254,17 @@
       <c r="A108" s="1">
         <v>106</v>
       </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D108" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>10</v>
@@ -4009,8 +4286,17 @@
       <c r="A109" s="1">
         <v>107</v>
       </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D109" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>10</v>
@@ -4032,8 +4318,17 @@
       <c r="A110" s="1">
         <v>108</v>
       </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D110" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>10</v>
@@ -4055,8 +4350,17 @@
       <c r="A111" s="1">
         <v>109</v>
       </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D111" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>10</v>
@@ -4078,8 +4382,17 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D112" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>10</v>
@@ -4101,8 +4414,17 @@
       <c r="A113" s="1">
         <v>111</v>
       </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D113" s="1" t="s">
-        <v>24</v>
+        <v>123</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>10</v>
@@ -4121,9 +4443,27 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>113</v>
+      </c>
+      <c r="I114" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F115" s="1"/>

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC125A-45CC-4D58-9373-6F011EE3F7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5ED82D-6BBE-4FCD-B6CB-3DB833F1C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>125</v>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>126</v>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>126</v>
@@ -1029,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>125</v>
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>126</v>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>125</v>
@@ -1125,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>126</v>
@@ -1157,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>125</v>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>125</v>
@@ -1221,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>126</v>
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>125</v>
@@ -1285,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>126</v>
@@ -1317,7 +1317,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>126</v>
@@ -1349,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>125</v>
@@ -1381,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>125</v>
@@ -1413,7 +1413,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>126</v>
@@ -1445,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>125</v>
@@ -1477,7 +1477,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>125</v>
@@ -1509,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>125</v>
@@ -1541,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>125</v>
@@ -1573,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>126</v>
@@ -1605,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>126</v>
@@ -1637,7 +1637,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>125</v>
@@ -1669,7 +1669,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>125</v>
@@ -1701,7 +1701,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>125</v>
@@ -1733,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>126</v>
@@ -1765,7 +1765,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>125</v>
@@ -1797,7 +1797,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>126</v>
@@ -1829,7 +1829,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>125</v>
@@ -1861,7 +1861,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>126</v>
@@ -1893,7 +1893,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>125</v>
@@ -1925,7 +1925,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>125</v>
@@ -1957,7 +1957,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>126</v>
@@ -1989,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>125</v>
@@ -2021,7 +2021,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>125</v>
@@ -2053,7 +2053,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>126</v>
@@ -2085,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>126</v>
@@ -2117,7 +2117,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>126</v>
@@ -2149,7 +2149,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>126</v>
@@ -2181,7 +2181,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>126</v>
@@ -2213,7 +2213,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>126</v>
@@ -2245,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>126</v>
@@ -2277,7 +2277,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>126</v>
@@ -2309,7 +2309,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>126</v>
@@ -2341,7 +2341,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>126</v>
@@ -2373,7 +2373,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>129</v>
@@ -2403,7 +2403,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>126</v>
@@ -2435,7 +2435,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>126</v>
@@ -2467,7 +2467,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>126</v>
@@ -2499,7 +2499,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>126</v>
@@ -2531,7 +2531,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>126</v>
@@ -2563,7 +2563,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>129</v>
@@ -2593,7 +2593,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>126</v>
@@ -2625,7 +2625,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>126</v>
@@ -2657,7 +2657,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>126</v>
@@ -2689,7 +2689,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>129</v>
@@ -2719,7 +2719,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>126</v>
@@ -2751,7 +2751,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>126</v>
@@ -2783,7 +2783,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>126</v>
@@ -2815,7 +2815,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>128</v>
@@ -2845,7 +2845,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>126</v>
@@ -2877,7 +2877,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>126</v>
@@ -2909,7 +2909,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>126</v>
@@ -2941,7 +2941,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>126</v>
@@ -2973,7 +2973,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>126</v>
@@ -3005,7 +3005,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>126</v>
@@ -3037,7 +3037,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>126</v>
@@ -3069,7 +3069,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>126</v>
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>128</v>
@@ -3131,7 +3131,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>126</v>
@@ -3163,7 +3163,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>126</v>
@@ -3195,7 +3195,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>130</v>
@@ -3225,7 +3225,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>131</v>
@@ -3255,7 +3255,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>131</v>
@@ -3285,7 +3285,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>130</v>
@@ -3314,7 +3314,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>131</v>
@@ -3343,7 +3343,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>131</v>
@@ -3372,7 +3372,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>130</v>
@@ -3401,7 +3401,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>131</v>
@@ -3430,7 +3430,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>130</v>
@@ -3459,7 +3459,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>130</v>
@@ -3488,7 +3488,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>131</v>
@@ -3517,7 +3517,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>131</v>
@@ -3546,7 +3546,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>131</v>
@@ -3575,7 +3575,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>130</v>
@@ -3604,7 +3604,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>126</v>
@@ -3636,7 +3636,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>130</v>
@@ -3665,7 +3665,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>131</v>
@@ -3694,7 +3694,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>130</v>
@@ -3723,7 +3723,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>94</v>
@@ -3749,7 +3749,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>126</v>
@@ -3781,7 +3781,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>126</v>
@@ -3839,9 +3839,9 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -3871,7 +3871,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>125</v>
@@ -3903,7 +3903,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>126</v>
@@ -3935,7 +3935,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>125</v>
@@ -3967,7 +3967,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>125</v>
@@ -3999,7 +3999,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>126</v>
@@ -4031,7 +4031,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>126</v>
@@ -4063,7 +4063,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>126</v>
@@ -4095,7 +4095,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>126</v>
@@ -4127,7 +4127,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>126</v>
@@ -4159,7 +4159,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>125</v>
@@ -4191,7 +4191,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>126</v>
@@ -4223,7 +4223,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>125</v>
@@ -4255,7 +4255,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>125</v>
@@ -4287,7 +4287,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>125</v>
@@ -4319,7 +4319,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>126</v>
@@ -4351,7 +4351,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>125</v>
@@ -4383,7 +4383,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>125</v>
@@ -4415,7 +4415,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>126</v>

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5ED82D-6BBE-4FCD-B6CB-3DB833F1C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B43CF5-1898-4634-B32E-F5B3C3F3110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="136">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,482 +65,495 @@
     <t>None</t>
   </si>
   <si>
-    <t>BackGround/00000</t>
+    <t>Character/00000</t>
+  </si>
+  <si>
+    <t>네! 그럼 다녀오겠습니다</t>
+  </si>
+  <si>
+    <t>소리가….더 커졌어!</t>
+  </si>
+  <si>
+    <t>근처에 얼마나 더 있는 거지?</t>
+  </si>
+  <si>
+    <t>to be continued</t>
+  </si>
+  <si>
+    <t>호호야 돌아왔느냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗 족장님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시 산책을 나갔다 왔어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랬구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님? 무슨일 있으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 마을 주변에서 이상한 것을 보지는 못했니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 것이요? 아뇨 보지 못했어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에휴… 그렇구나.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 괜히 걱정하는 건가…</t>
+  </si>
+  <si>
+    <t>걱정하는게 있으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…그래 호호야 최근 인간이라고 하는 생명체들이 우리 행성에 온 것은 알고 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 저희 행성이 아름답다고 잠시 머물면서 조사해도 되냐고 물었잖아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 저희는 행성을 다치게 하지 않는 선에서 허락했구요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 나는 요즘 인간들이 무척이나 의심스럽구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들이 의심스럽다구요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 최근 무언가 달라진 느낌을 많아 받는구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속에 동물들이 많이 보이지 않고 무엇보다 이상한 소음이 늘었어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호야 내가 부탁하나 해도 되겠느냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">숲속을 순찰하면서 이상한 것들이 있는지 조사하고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들이 숲속의 변화에 상관이 있는지 알아봐주렴…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 괜한 의심을 하는 걸지도 모르지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 그럼요! 족장님의 부탁이신걸요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 뭘 도와드리면 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시만 호호야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지킬 수 있는 방법이요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 WASD를 이용하여 몸을 이동시키고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space Bar를 눌러 여우 구슬을 발사하렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 행성의 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으 아파라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속에 왜 저런게 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 모르니 주변을 좀 더 살펴봐야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 마을로 돌아가서 족장님께 말씀드려야(쫑긋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위이이잉 위이이잉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소리지? 뭐가 위이잉거렸는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 저 소리가 무엇인지만 확인하고 가야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님 의심대로 인간들이 한건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬로도 부술 수 없고... 다른 물건들과 다르게 아프진 않았지만 수상해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실히 무슨일이 벌어지고 있는 것 확실한것 같네...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 조심히 마을로 돌아가ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아 들켰다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉헉헉 정말 힘들었어 그리고 저 물체들 점점 더 빨리져서 더 힘들었지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 주변에 있는 것들은 다 처리 한 것 같으니까 이젠 정말 돌아가야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위이이이이이이이잉!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위우우웅 위이이이이이잉!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐빅 자원.. 수집 한다… 자우언으…ㅅ우이집…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말소리?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가 있나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">말을 이상하게 하긴 하지만 누군가 다친 것 수도 있으니까 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와주려 가야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 이렇게 위험한 것들이 많아진거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 호호족들만 있었을때는 이런일이 일어나지 않았어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 정말 족장님의 의심대로 인간들이 벌인 짓인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 행성 @$^%&amp;$ 수집#%@$%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 말소리가 들리잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게 원래도 좀 고장이 났어지만 이정도는 아니였는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쨌든 이 행성의 자원에 대해서는 거의 다 조사했어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래? 결과는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 지구로 돌아가서도 충분이 사용이 가능한 자원들이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 에너지 고갈 사태에 충분한 해결책이 될 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 이 행성의 원주민들이 알아차리기 전에 최대한 많은 자원을 채굴하자고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하! 저 착해빠지고 멍청한 놈들은 우리의 허무맹랑한 소리도 믿었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 만약 원주민들이 알게 되면 어떻게하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 곧 철수하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 무슨 소리 못들었나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리? 뭐가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 아니다 잘못 들은 모양이군 가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말도 안돼… 우리 행성을 자원을 빼앗고 여차하면 공격하겠다니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 이 사실을 족장님께 말씀드려야지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주호마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간들이 돌아가고 난 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호야 돌아왔구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 물체들이 날라와 우리를 공격했단다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 걱정 말거라 여우구슬의 힘으로 부족이 힘을 합쳐 물리쳤으니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그래서 숲속에 이상한 것들을 만들었고 무엇보다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 만약 알게 되더라도 우리가 가지고 있는 장비들을 사용해 모두 처리하면 그만이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 알려줘서 고맙구나 호호야 수고했단다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래… 다른 부족장들과 상의해서 그들을 이 행성에 머물수 있도록 허락했지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 위험할 수 있으니 인간을 마주친다면 숨으려무나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 그럼 다녀오겠ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬이요? 그게 뭐죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 힘으로 자신과, 부족을 지켜주렴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 족장님 인간… 마을이 왜 망가진거죠?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다행이다… 아 맞다. 족장님 의심이 맞았어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인간들은 저의 행성을 연구하는 것이 아닌 자원을 훔치려 온거였어요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하긴 그렇긴 하지 그럼 이제 본부로 돌아가자 이 지역에 관한 정보는 거의 다 얻었어 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이제 다른 지역으로 가도 될 것 같아 이곳을 마지막으로 이 행성의 지역별 자원에 대한 정보는 다 얻었어  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 본부로 돌아가서 본격적으로 자원을 채굴하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇103-1177호가 망가졌군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호야 위험하지만 인간들은 본부에 대해 조사를 해봐야겠구나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 우리가 인간들에 대해 가진 정보가 너무 부족하니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 최악의 상황이 막치면 이 행성의 모든 부족들을 불러 모아 인간들과 전쟁을 할 수 도 있겠구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일단 마을을 정비하자꾸나 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 준비 해야지 앞으로 우리 부족에게 닥칠 일을…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번엔 몰래 접근 해야겠어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만약 저희가 자기들의 계획을 알게되면 저희를 다 처리할 거라고… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 본부로 돌아간 다음 다른 지역으로 옮겨 본격적으로 자원을 채굴할 것이라고 했어요</t>
+  </si>
+  <si>
+    <t>네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주호 족장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">말까지 하는 이상한 물체.. 정말 위험했어. 대체 숲속에서 무슨일이 일어나고 있는거야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스락! (헉!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>BackGround/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BackGround/00001</t>
-  </si>
-  <si>
-    <t>Character/00000</t>
-  </si>
-  <si>
-    <t>네! 그럼 다녀오겠습니다</t>
-  </si>
-  <si>
-    <t>소리가….더 커졌어!</t>
-  </si>
-  <si>
-    <t>근처에 얼마나 더 있는 거지?</t>
-  </si>
-  <si>
-    <t>to be continued</t>
-  </si>
-  <si>
-    <t>호호야 돌아왔느냐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앗 족장님!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠시 산책을 나갔다 왔어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랬구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>족장님? 무슨일 있으세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 마을 주변에서 이상한 것을 보지는 못했니?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 것이요? 아뇨 보지 못했어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">에휴… 그렇구나.. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 괜히 걱정하는 건가…</t>
-  </si>
-  <si>
-    <t>걱정하는게 있으세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…그래 호호야 최근 인간이라고 하는 생명체들이 우리 행성에 온 것은 알고 있지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 저희 행성이 아름답다고 잠시 머물면서 조사해도 되냐고 물었잖아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 저희는 행성을 다치게 하지 않는 선에서 허락했구요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 나는 요즘 인간들이 무척이나 의심스럽구나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간들이 의심스럽다구요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 최근 무언가 달라진 느낌을 많아 받는구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲속에 동물들이 많이 보이지 않고 무엇보다 이상한 소음이 늘었어…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호야 내가 부탁하나 해도 되겠느냐?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">숲속을 순찰하면서 이상한 것들이 있는지 조사하고 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간들이 숲속의 변화에 상관이 있는지 알아봐주렴…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 괜한 의심을 하는 걸지도 모르지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 그럼요! 족장님의 부탁이신걸요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 뭘 도와드리면 될까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠시만 호호야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지킬 수 있는 방법이요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 WASD를 이용하여 몸을 이동시키고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Space Bar를 눌러 여우 구슬을 발사하렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 행성의 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으으 아파라…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲속에 왜 저런게 있지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 모르니 주변을 좀 더 살펴봐야겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 마을로 돌아가서 족장님께 말씀드려야(쫑긋)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위이이잉 위이이잉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 소리지? 뭐가 위이잉거렸는데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠… 저 소리가 무엇인지만 확인하고 가야겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>족장님 의심대로 인간들이 한건가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">헉헉 내 생각보다 양이 많았어, 저런 위험하고 이상한 물건들이 숲속에 널려있고 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어떤 물체가 숲속을 막고 있었지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우 구슬로도 부술 수 없고... 다른 물건들과 다르게 아프진 않았지만 수상해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확실히 무슨일이 벌어지고 있는 것 확실한것 같네...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐지? 기존것들과는 다르게 움직였어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어떻게 해야하지 으으 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 어서 마을로 돌아가ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 조심히 마을로 돌아가ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으아 들켰다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헉헉헉 정말 힘들었어 그리고 저 물체들 점점 더 빨리져서 더 힘들었지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래도 주변에 있는 것들은 다 처리 한 것 같으니까 이젠 정말 돌아가야겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위이이이이이이이잉!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위우우웅 위이이이이이잉!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삐빅 자원.. 수집 한다… 자우언으…ㅅ우이집…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말소리?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누군가 있나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">말을 이상하게 하긴 하지만 누군가 다친 것 수도 있으니까 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도와주려 가야겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 이렇게 위험한 것들이 많아진거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 호호족들만 있었을때는 이런일이 일어나지 않았어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 정말 족장님의 의심대로 인간들이 벌인 짓인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 행성 @$^%&amp;$ 수집#%@$%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>또 말소리가 들리잖아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러게 원래도 좀 고장이 났어지만 이정도는 아니였는데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쨌든 이 행성의 자원에 대해서는 거의 다 조사했어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래? 결과는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 지구로 돌아가서도 충분이 사용이 가능한 자원들이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지구의 에너지 고갈 사태에 충분한 해결책이 될 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 그럼 이 행성의 원주민들이 알아차리기 전에 최대한 많은 자원을 채굴하자고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하! 저 착해빠지고 멍청한 놈들은 우리의 허무맹랑한 소리도 믿었어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 만약 원주민들이 알게 되면 어떻게하지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 그럼 곧 철수하지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방금 무슨 소리 못들었나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리? 뭐가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠… 아니다 잘못 들은 모양이군 가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말도 안돼… 우리 행성을 자원을 빼앗고 여차하면 공격하겠다니…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서 이 사실을 족장님께 말씀드려야지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주호마을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간들이 돌아가고 난 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>족장님!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호야 돌아왔구나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 물체들이 날라와 우리를 공격했단다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 걱정 말거라 여우구슬의 힘으로 부족이 힘을 합쳐 물리쳤으니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">그래서 숲속에 이상한 것들을 만들었고 무엇보다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 만약 알게 되더라도 우리가 가지고 있는 장비들을 사용해 모두 처리하면 그만이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 알려줘서 고맙구나 호호야 수고했단다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래… 다른 부족장들과 상의해서 그들을 이 행성에 머물수 있도록 허락했지..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 위험할 수 있으니 인간을 마주친다면 숨으려무나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네! 그럼 다녀오겠ㅅ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우 구슬이요? 그게 뭐죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이 힘으로 자신과, 부족을 지켜주렴 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 족장님 인간… 마을이 왜 망가진거죠?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다행이다… 아 맞다. 족장님 의심이 맞았어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">인간들은 저의 행성을 연구하는 것이 아닌 자원을 훔치려 온거였어요 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">하긴 그렇긴 하지 그럼 이제 본부로 돌아가자 이 지역에 관한 정보는 거의 다 얻었어 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이제 다른 지역으로 가도 될 것 같아 이곳을 마지막으로 이 행성의 지역별 자원에 대한 정보는 다 얻었어  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 본부로 돌아가서 본격적으로 자원을 채굴하자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로봇103-1177호가 망가졌군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호야 위험하지만 인간들은 본부에 대해 조사를 해봐야겠구나..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 우리가 인간들에 대해 가진 정보가 너무 부족하니…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만약 최악의 상황이 막치면 이 행성의 모든 부족들을 불러 모아 인간들과 전쟁을 할 수 도 있겠구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">일단 마을을 정비하자꾸나 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 준비 해야지 앞으로 우리 부족에게 닥칠 일을…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번엔 몰래 접근 해야겠어…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">만약 저희가 자기들의 계획을 알게되면 저희를 다 처리할 거라고… </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 본부로 돌아간 다음 다른 지역으로 옮겨 본격적으로 자원을 채굴할 것이라고 했어요</t>
-  </si>
-  <si>
-    <t>네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주호 족장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">말까지 하는 이상한 물체.. 정말 위험했어. 대체 숲속에서 무슨일이 일어나고 있는거야 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바스락! (헉!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉헉 내 생각보다 양이 많았어, 왜 저런 위험하고 이상한 물건들이 숲속에 널려있는 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 숲속을 막고 있던건 도대체 뭘까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 ㅈ저건 도대체 뭐지?! 살아있지도 않은데 움직였어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 해야하지 으으</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을로 돌아가야하나? 하지만 아직 인간들에 대한 단서는 못찾았는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -936,16 +949,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -968,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -1000,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1032,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1064,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -1096,13 +1109,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1128,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1160,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1192,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1224,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1256,13 +1269,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1288,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1320,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1352,13 +1365,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1384,13 +1397,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1416,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1448,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1480,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1512,16 +1525,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1544,13 +1557,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1576,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
@@ -1608,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>10</v>
@@ -1640,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1672,13 +1685,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1704,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1736,13 +1749,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
@@ -1768,13 +1781,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1800,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
@@ -1832,13 +1845,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1864,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
@@ -1896,13 +1909,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1928,13 +1941,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -1960,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
@@ -1992,16 +2005,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -2024,16 +2037,16 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -2056,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
@@ -2077,7 +2090,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2088,16 +2101,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -2120,16 +2133,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2152,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2173,7 +2186,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2184,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2216,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
@@ -2248,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
@@ -2280,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
@@ -2312,13 +2325,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -2344,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>10</v>
@@ -2376,10 +2389,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
@@ -2406,16 +2419,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2438,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2459,7 +2472,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2470,16 +2483,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2502,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>10</v>
@@ -2534,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>10</v>
@@ -2566,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
@@ -2596,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2628,16 +2641,16 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2660,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>10</v>
@@ -2692,10 +2705,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
@@ -2722,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>10</v>
@@ -2754,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>10</v>
@@ -2786,16 +2799,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2818,14 +2831,14 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2848,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
@@ -2880,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>10</v>
@@ -2912,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>10</v>
@@ -2944,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>10</v>
@@ -2976,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>10</v>
@@ -3008,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>10</v>
@@ -3040,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>10</v>
@@ -3072,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>10</v>
@@ -3104,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
@@ -3134,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>10</v>
@@ -3166,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>10</v>
@@ -3198,10 +3211,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
@@ -3228,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -3258,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
@@ -3288,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>10</v>
@@ -3317,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
@@ -3346,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>10</v>
@@ -3375,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>10</v>
@@ -3404,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -3433,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -3462,10 +3475,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -3491,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3520,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3549,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3578,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3607,13 +3620,13 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3639,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3668,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
@@ -3697,10 +3710,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
@@ -3726,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>10</v>
@@ -3752,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
@@ -3784,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
@@ -3816,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>10</v>
@@ -3842,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>10</v>
@@ -3874,13 +3887,13 @@
         <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>10</v>
@@ -3906,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>10</v>
@@ -3938,13 +3951,13 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>10</v>
@@ -3970,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>10</v>
@@ -4002,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>10</v>
@@ -4034,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>10</v>
@@ -4066,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
@@ -4098,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
@@ -4130,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>10</v>
@@ -4162,13 +4175,13 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>10</v>
@@ -4194,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>10</v>
@@ -4226,13 +4239,13 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>10</v>
@@ -4258,13 +4271,13 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>10</v>
@@ -4290,13 +4303,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>10</v>
@@ -4322,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>10</v>
@@ -4354,13 +4367,13 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>10</v>
@@ -4386,13 +4399,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>10</v>
@@ -4418,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>10</v>
@@ -4447,7 +4460,7 @@
         <v>112</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>10</v>

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B43CF5-1898-4634-B32E-F5B3C3F3110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FD03E-E6A1-4410-8962-DEBC2181CA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="139">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,6 +555,17 @@
   <si>
     <t>Map4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -893,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2744,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2756,7 +2767,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2776,7 +2787,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2966,7 +2977,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2978,7 +2989,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2998,7 +3009,7 @@
         <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -4475,7 +4486,7 @@
         <v>-100</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FD03E-E6A1-4410-8962-DEBC2181CA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB816E-E2A1-46E0-94B4-BB4611161B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="144">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">말까지 하는 이상한 물체.. 정말 위험했어. 대체 숲속에서 무슨일이 일어나고 있는거야 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,6 +562,30 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>해치웠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐빅 발견 발견…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">말까지 하는 이상한 물체 2개.. 정말 위험했어. 대체 숲속에서 무슨일이 일어나고 있는거야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아아아! 또 나타났다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -904,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,7 +989,7 @@
         <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -2101,7 +2121,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2121,7 +2141,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -2153,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2185,7 +2205,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2197,7 +2217,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2211,13 +2231,13 @@
         <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2243,7 +2263,7 @@
         <v>119</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
@@ -2400,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>50</v>
@@ -2471,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2483,7 +2503,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2497,13 +2517,13 @@
         <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2529,7 +2549,7 @@
         <v>119</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>11</v>
@@ -2561,7 +2581,7 @@
         <v>119</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>11</v>
@@ -2590,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>60</v>
@@ -2716,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>61</v>
@@ -2755,7 +2775,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2767,7 +2787,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2787,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2842,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>62</v>
@@ -2977,7 +2997,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2989,7 +3009,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3003,13 +3023,13 @@
         <v>119</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -3029,19 +3049,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -3067,13 +3084,13 @@
         <v>119</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -3099,13 +3116,13 @@
         <v>119</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -3117,7 +3134,7 @@
         <v>-100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3125,17 +3142,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F70" s="1" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3161,7 +3180,7 @@
         <v>119</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>11</v>
@@ -3193,7 +3212,7 @@
         <v>119</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>11</v>
@@ -3219,15 +3238,17 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>10</v>
       </c>
@@ -3249,13 +3270,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -3282,12 +3303,14 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>10</v>
       </c>
@@ -3309,13 +3332,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>74</v>
+        <v>113</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>10</v>
@@ -3338,14 +3364,15 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
         <v>10</v>
       </c>
@@ -3370,11 +3397,12 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
         <v>10</v>
       </c>
@@ -3396,14 +3424,15 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
         <v>10</v>
       </c>
@@ -3425,13 +3454,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -3454,13 +3483,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -3483,13 +3512,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -3512,13 +3541,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3544,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3570,13 +3599,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3602,10 +3631,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3631,13 +3660,10 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3660,13 +3686,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3692,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
@@ -3721,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
@@ -3749,8 +3775,14 @@
       <c r="B91" s="1">
         <v>0</v>
       </c>
+      <c r="C91" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D91" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>10</v>
@@ -3773,16 +3805,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
@@ -3808,13 +3837,10 @@
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
@@ -3839,8 +3865,11 @@
       <c r="B94" s="1">
         <v>1</v>
       </c>
+      <c r="C94" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D94" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>10</v>
@@ -3865,14 +3894,8 @@
       <c r="B95" s="1">
         <v>0</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>10</v>
@@ -3895,16 +3918,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>10</v>
@@ -3933,7 +3956,7 @@
         <v>119</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>11</v>
@@ -3961,14 +3984,8 @@
       <c r="B98" s="1">
         <v>1</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>10</v>
@@ -3991,16 +4008,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>10</v>
@@ -4023,16 +4040,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>10</v>
@@ -4061,7 +4078,7 @@
         <v>119</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -4087,16 +4104,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
@@ -4119,16 +4136,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
@@ -4156,8 +4173,8 @@
       <c r="C104" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D104" t="s">
-        <v>115</v>
+      <c r="D104" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
@@ -4183,16 +4200,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>10</v>
@@ -4221,7 +4238,7 @@
         <v>119</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>11</v>
@@ -4247,16 +4264,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>10</v>
@@ -4279,16 +4296,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="D108" t="s">
+        <v>115</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>10</v>
@@ -4317,7 +4334,7 @@
         <v>118</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>117</v>
@@ -4381,7 +4398,7 @@
         <v>118</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>117</v>
@@ -4413,7 +4430,7 @@
         <v>118</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>117</v>
@@ -4439,16 +4456,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>10</v>
@@ -4470,8 +4487,17 @@
       <c r="A114" s="1">
         <v>112</v>
       </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D114" s="1" t="s">
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>10</v>
@@ -4486,26 +4512,127 @@
         <v>-100</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>114</v>
+      </c>
+      <c r="I115" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>115</v>
+      </c>
+      <c r="I116" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>116</v>
+      </c>
+      <c r="I117" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I118" s="1"/>
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>117</v>
+      </c>
+      <c r="I118" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I119" s="1"/>

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB816E-E2A1-46E0-94B4-BB4611161B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393AE9DF-33E0-4B82-9D50-326E3EFCFC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="146">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잠시 산책을 나갔다 왔어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그랬구나…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,22 +299,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그러게 원래도 좀 고장이 났어지만 이정도는 아니였는데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쨌든 이 행성의 자원에 대해서는 거의 다 조사했어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래? 결과는?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우리 지구로 돌아가서도 충분이 사용이 가능한 자원들이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지구의 에너지 고갈 사태에 충분한 해결책이 될 것 같아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소리? 뭐가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>흠… 아니다 잘못 들은 모양이군 가지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,22 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">하긴 그렇긴 하지 그럼 이제 본부로 돌아가자 이 지역에 관한 정보는 거의 다 얻었어 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이제 다른 지역으로 가도 될 것 같아 이곳을 마지막으로 이 행성의 지역별 자원에 대한 정보는 다 얻었어  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 본부로 돌아가서 본격적으로 자원을 채굴하자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로봇103-1177호가 망가졌군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>호호야 위험하지만 인간들은 본부에 대해 조사를 해봐야겠구나..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삐빅 발견 발견…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -585,6 +545,54 @@
   </si>
   <si>
     <t>으아아아! 또 나타났다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 잠시 산책을 나갔다 왔어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇103-1105호와 103-1106가 망가졌군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게 원래도 좀 고장난 부분이 있었지만 이정도는 아니였는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 그래도 이 행성의 지역과 지역별 자원에 대해서는 거의 다 조사했어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 지구에서도 충분이 사용이 가능한 자원들이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하긴 그렇긴 하지 그럼 이제 본부로 돌아가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이곳을 마지막으로 이 행성에 대해 필요한 정보는 다 얻었어 이제 채굴만 하면되 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본부로 돌아가서 본격적으로 자원을 채굴하는 계획을 실행하면 될 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리? 난 못 들었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐빅 외계 생명체 ㅂ발견 발견…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -980,16 +988,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1012,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -1044,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1076,13 +1084,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1108,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1140,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1172,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1204,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1236,13 +1244,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1268,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -1300,13 +1308,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1332,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -1364,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1396,13 +1404,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1428,13 +1436,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1460,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
@@ -1492,13 +1500,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1524,13 +1532,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1556,13 +1564,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1588,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1620,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>11</v>
@@ -1652,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
@@ -1684,13 +1692,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1716,13 +1724,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1748,13 +1756,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1780,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
@@ -1812,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1844,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
@@ -1876,13 +1884,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1908,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>11</v>
@@ -1940,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1972,13 +1980,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -2004,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>11</v>
@@ -2036,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -2068,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
@@ -2100,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
@@ -2121,7 +2129,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2132,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -2164,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2196,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2217,7 +2225,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2228,16 +2236,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2260,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
@@ -2292,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
@@ -2324,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
@@ -2356,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>11</v>
@@ -2388,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>11</v>
@@ -2420,12 +2428,14 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
@@ -2450,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>11</v>
@@ -2482,16 +2492,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2503,7 +2513,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2514,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2546,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>11</v>
@@ -2578,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>11</v>
@@ -2610,12 +2620,14 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
       </c>
@@ -2640,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -2672,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -2704,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>11</v>
@@ -2736,12 +2748,14 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2766,16 +2780,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2787,7 +2801,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2798,16 +2812,16 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2830,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>11</v>
@@ -2862,12 +2876,14 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
       </c>
@@ -2892,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>11</v>
@@ -2924,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>11</v>
@@ -2956,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>11</v>
@@ -2988,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -3009,7 +3025,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3020,16 +3036,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -3052,13 +3068,16 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -3081,16 +3100,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -3113,16 +3132,16 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -3134,7 +3153,7 @@
         <v>-100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3145,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3177,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>11</v>
@@ -3209,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>11</v>
@@ -3241,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>11</v>
@@ -3273,10 +3292,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -3303,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>11</v>
@@ -3335,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>11</v>
@@ -3367,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -3397,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -3427,10 +3446,10 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
@@ -3457,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -3486,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -3515,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -3544,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3573,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3602,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3631,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3660,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3689,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3718,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
@@ -3747,10 +3766,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
@@ -3776,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>11</v>
@@ -3808,10 +3827,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
@@ -3837,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
@@ -3866,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>10</v>
@@ -3895,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>10</v>
@@ -3921,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>11</v>
@@ -3953,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>11</v>
@@ -3985,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>10</v>
@@ -4011,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -4043,13 +4062,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>10</v>
@@ -4075,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -4107,13 +4126,13 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
@@ -4139,13 +4158,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
@@ -4171,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
@@ -4203,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>11</v>
@@ -4235,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>11</v>
@@ -4267,10 +4286,10 @@
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>11</v>
@@ -4299,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>11</v>
@@ -4331,13 +4350,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>10</v>
@@ -4363,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>11</v>
@@ -4395,13 +4414,13 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>10</v>
@@ -4427,13 +4446,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>10</v>
@@ -4459,13 +4478,13 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>10</v>
@@ -4491,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>11</v>
@@ -4523,13 +4542,13 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>10</v>
@@ -4555,13 +4574,13 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>10</v>
@@ -4587,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>11</v>
@@ -4631,7 +4650,7 @@
         <v>-100</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393AE9DF-33E0-4B82-9D50-326E3EFCFC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5108C896-710C-4014-985E-C1FC3C3BA7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="147">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,10 @@
   </si>
   <si>
     <t>삐빅 외계 생명체 ㅂ발견 발견…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4001,13 +4005,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
@@ -4634,8 +4638,14 @@
       <c r="A118" s="1">
         <v>116</v>
       </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
       <c r="D118" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>10</v>

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5108C896-710C-4014-985E-C1FC3C3BA7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D89AA93-705E-4495-B95F-18F292A63B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="150">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,26 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그래? 결과는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지구의 에너지 고갈 사태에 충분한 해결책이 될 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 그럼 이 행성의 원주민들이 알아차리기 전에 최대한 많은 자원을 채굴하자고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하! 저 착해빠지고 멍청한 놈들은 우리의 허무맹랑한 소리도 믿었어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 만약 원주민들이 알게 되면 어떻게하지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래 그럼 곧 철수하지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그리고 만약 알게 되더라도 우리가 가지고 있는 장비들을 사용해 모두 처리하면 그만이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래 알려줘서 고맙구나 호호야 수고했단다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,30 +532,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그러게 원래도 좀 고장난 부분이 있었지만 이정도는 아니였는데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뭐 그래도 이 행성의 지역과 지역별 자원에 대해서는 거의 다 조사했어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우리 지구에서도 충분이 사용이 가능한 자원들이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하긴 그렇긴 하지 그럼 이제 본부로 돌아가자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이곳을 마지막으로 이 행성에 대해 필요한 정보는 다 얻었어 이제 채굴만 하면되 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본부로 돌아가서 본격적으로 자원을 채굴하는 계획을 실행하면 될 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소리? 난 못 들었어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,6 +553,62 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐음~? 그러게 원래도 좀 고장난 부분이 있었지만 이정도는 아니였는데 말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런가? 결과는 어떻지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크크 우리 지구에서도 충분이 사용이 가능한 자원들이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구의 에너지 고갈 사태에 충분한 해결책이 될 것 같다구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇군, 그럼 이 행성의 원주민들이 알아차리기 전에 최대한 많은 자원을 채굴하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋지 좋아 ...근데 만약 원주민들이 알게 되면 어떻게하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하! 저 착해빠지고 멍청한 놈들은 우리의 허무맹랑한 소리도 믿었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 만약 알게 되더라도 우리가 가지고 있는 장비들을 사용해 모두 처리하면 그만이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크크 하긴 그렇긴 하지 그럼 이제 본부로 돌아가자구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳을 마지막으로 이 행성에 대해 필요한 정보는 다 얻었으니까 말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은건 이제 본부로 돌아가서 본격적으로 계획을 실행하는 것 뿐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -992,16 +1004,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1024,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -1056,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1088,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1120,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -1152,13 +1164,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1184,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -1216,13 +1228,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1248,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1280,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
@@ -1312,13 +1324,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1344,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -1376,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1408,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1440,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1472,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>29</v>
@@ -1504,13 +1516,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1536,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1568,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1600,13 +1612,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1632,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
@@ -1664,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
@@ -1696,13 +1708,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1728,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1760,13 +1772,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1792,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
@@ -1824,13 +1836,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1856,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>39</v>
@@ -1888,13 +1900,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1920,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>41</v>
@@ -1952,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1984,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -2016,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>11</v>
@@ -2048,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -2080,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
@@ -2112,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
@@ -2133,7 +2145,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2144,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>45</v>
@@ -2153,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -2176,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>46</v>
@@ -2185,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2208,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>47</v>
@@ -2217,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2229,7 +2241,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2240,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2272,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
@@ -2304,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>53</v>
@@ -2336,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>54</v>
@@ -2368,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>52</v>
@@ -2400,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>48</v>
@@ -2432,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -2464,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>50</v>
@@ -2496,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>51</v>
@@ -2505,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2517,7 +2529,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2528,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2560,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>11</v>
@@ -2592,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>11</v>
@@ -2624,13 +2636,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
@@ -2656,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -2688,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -2720,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>55</v>
@@ -2752,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
@@ -2784,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>56</v>
@@ -2793,7 +2805,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2805,7 +2817,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2816,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>57</v>
@@ -2825,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2848,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>58</v>
@@ -2880,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2912,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>62</v>
@@ -2944,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>63</v>
@@ -2976,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>64</v>
@@ -3008,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
@@ -3017,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -3029,7 +3041,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3040,16 +3052,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -3072,16 +3084,16 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -3104,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -3136,16 +3148,16 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -3157,7 +3169,7 @@
         <v>-100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3168,16 +3180,16 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3200,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>66</v>
@@ -3232,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>67</v>
@@ -3264,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>68</v>
@@ -3296,12 +3308,14 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3326,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>70</v>
@@ -3358,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>11</v>
@@ -3390,12 +3404,14 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E77" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
       </c>
@@ -3420,12 +3436,14 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
         <v>10</v>
       </c>
@@ -3450,12 +3468,14 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E79" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="F79" s="1" t="s">
         <v>10</v>
       </c>
@@ -3480,10 +3500,13 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>71</v>
+        <v>139</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -3509,10 +3532,13 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -3538,10 +3564,13 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>72</v>
+        <v>141</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -3567,10 +3596,13 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>73</v>
+        <v>142</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3596,10 +3628,13 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>75</v>
+        <v>143</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3625,10 +3660,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>74</v>
+        <v>144</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3654,10 +3692,13 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3683,10 +3724,13 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3712,10 +3756,13 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3741,10 +3788,13 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
@@ -3770,10 +3820,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
@@ -3799,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>11</v>
@@ -3831,10 +3884,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
@@ -3860,10 +3916,13 @@
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
@@ -3889,10 +3948,13 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>10</v>
@@ -3915,10 +3977,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>10</v>
@@ -3944,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>11</v>
@@ -3976,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>11</v>
@@ -4005,13 +4070,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
@@ -4034,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -4066,13 +4134,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>10</v>
@@ -4098,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -4130,13 +4198,13 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
@@ -4162,13 +4230,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
@@ -4194,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
@@ -4226,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>11</v>
@@ -4258,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>11</v>
@@ -4290,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>11</v>
@@ -4322,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D108" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>11</v>
@@ -4354,13 +4422,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>10</v>
@@ -4386,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>11</v>
@@ -4418,13 +4486,13 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>10</v>
@@ -4450,13 +4518,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>10</v>
@@ -4482,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>10</v>
@@ -4514,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>11</v>
@@ -4546,13 +4614,13 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>10</v>
@@ -4578,13 +4646,13 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>10</v>
@@ -4610,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>11</v>
@@ -4645,7 +4713,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>10</v>
@@ -4660,7 +4728,7 @@
         <v>-100</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D89AA93-705E-4495-B95F-18F292A63B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133C5A3-5600-457D-99A7-525330FDF892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,14 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여우 구슬로도 부술 수 없고... 다른 물건들과 다르게 아프진 않았지만 수상해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확실히 무슨일이 벌어지고 있는 것 확실한것 같네...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일단 조심히 마을로 돌아가ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,10 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그리고 숲속을 막고 있던건 도대체 뭘까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저 ㅈ저건 도대체 뭐지?! 살아있지도 않은데 움직였어!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,6 +597,18 @@
   </si>
   <si>
     <t>Character/00006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그리고 숲속을 막고 있던건 도대체 뭘까? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬로는 부술 수 없었지만 상자 안에 있는 조각으로는 열 수 있었지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 수상해…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1004,16 +1004,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1100,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -1164,13 +1164,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -1228,13 +1228,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1260,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
@@ -1324,13 +1324,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1420,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1452,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>29</v>
@@ -1516,13 +1516,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1548,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1580,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1612,13 +1612,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
@@ -1708,13 +1708,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1740,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1772,13 +1772,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
@@ -1836,13 +1836,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>39</v>
@@ -1900,13 +1900,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>41</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1996,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>11</v>
@@ -2060,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -2092,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
@@ -2145,7 +2145,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>45</v>
@@ -2165,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>46</v>
@@ -2197,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>47</v>
@@ -2229,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2252,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
@@ -2348,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>52</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>48</v>
@@ -2444,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>50</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>51</v>
@@ -2517,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2540,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>11</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>11</v>
@@ -2636,13 +2636,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>11</v>
@@ -2764,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
@@ -2796,16 +2796,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2828,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>11</v>
@@ -2892,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>11</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>11</v>
@@ -2988,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>11</v>
@@ -3020,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3052,16 +3052,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -3084,16 +3084,16 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -3148,16 +3148,16 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>-100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3180,16 +3180,16 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3212,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>11</v>
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>11</v>
@@ -3276,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>11</v>
@@ -3308,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>10</v>
@@ -3340,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>11</v>
@@ -3372,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>11</v>
@@ -3404,13 +3404,13 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>10</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>10</v>
@@ -3500,13 +3500,13 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -3532,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -3564,13 +3564,13 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -3596,13 +3596,13 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3660,13 +3660,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3692,13 +3692,13 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3724,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
@@ -3820,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
@@ -3852,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>11</v>
@@ -3884,13 +3884,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
@@ -3948,13 +3948,13 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>10</v>
@@ -3980,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>10</v>
@@ -4009,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>11</v>
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>11</v>
@@ -4073,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -4134,13 +4134,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>10</v>
@@ -4166,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -4198,13 +4198,13 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
@@ -4230,13 +4230,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
@@ -4262,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
@@ -4294,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>11</v>
@@ -4326,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>11</v>
@@ -4358,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>11</v>
@@ -4390,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>11</v>
@@ -4422,13 +4422,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>10</v>
@@ -4454,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>11</v>
@@ -4486,13 +4486,13 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>10</v>
@@ -4518,13 +4518,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>10</v>
@@ -4550,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>10</v>
@@ -4582,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>11</v>
@@ -4614,13 +4614,13 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>10</v>
@@ -4646,13 +4646,13 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>10</v>
@@ -4678,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>11</v>
@@ -4713,7 +4713,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>10</v>
@@ -4728,7 +4728,7 @@
         <v>-100</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133C5A3-5600-457D-99A7-525330FDF892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D08C0A-B096-4F34-9965-21C0E50CF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>으아 들켰다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>헉헉헉 정말 힘들었어 그리고 저 물체들 점점 더 빨리져서 더 힘들었지…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,14 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위이이이이이이이잉!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위우우웅 위이이이이이잉!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삐빅 자원.. 수집 한다… 자우언으…ㅅ우이집…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,14 +480,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>해치웠나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">말까지 하는 이상한 물체 2개.. 정말 위험했어. 대체 숲속에서 무슨일이 일어나고 있는거야 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,10 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삐빅 외계 생명체 ㅂ발견 발견…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,6 +585,30 @@
   </si>
   <si>
     <t>뭔가 수상해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아 들켰다!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위우우웅 위이이이이이잉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위이이이이이이이잉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐빅 외계 생명체 ㅂ발견 ㅊㅓ리 제거…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해치웠나? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 왜 다시 말소리가… 더 있는 건 아니겠지?...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1004,16 +1004,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1100,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -1164,13 +1164,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -1228,13 +1228,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1260,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
@@ -1324,13 +1324,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1420,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1452,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>29</v>
@@ -1516,13 +1516,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1548,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1580,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1612,13 +1612,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
@@ -1708,13 +1708,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1740,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1772,13 +1772,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
@@ -1836,13 +1836,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>39</v>
@@ -1900,13 +1900,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>41</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1996,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>11</v>
@@ -2060,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -2092,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
@@ -2145,7 +2145,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>45</v>
@@ -2165,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>46</v>
@@ -2197,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>47</v>
@@ -2229,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2252,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
@@ -2348,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>52</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>48</v>
@@ -2444,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>50</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>51</v>
@@ -2517,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2540,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>11</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>11</v>
@@ -2636,13 +2636,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>53</v>
@@ -2764,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
@@ -2796,16 +2796,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2828,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>11</v>
@@ -2892,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>11</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>11</v>
@@ -2988,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>11</v>
@@ -3020,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3052,16 +3052,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -3084,16 +3084,16 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -3148,16 +3148,16 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>-100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3180,16 +3180,16 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3212,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>11</v>
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>11</v>
@@ -3276,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>11</v>
@@ -3308,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>10</v>
@@ -3340,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>11</v>
@@ -3372,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>11</v>
@@ -3404,13 +3404,13 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>10</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>10</v>
@@ -3500,13 +3500,13 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -3532,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -3564,13 +3564,13 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -3596,13 +3596,13 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3660,13 +3660,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3692,13 +3692,13 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3724,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
@@ -3820,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
@@ -3852,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>11</v>
@@ -3884,13 +3884,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
@@ -3948,13 +3948,13 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>10</v>
@@ -3980,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>10</v>
@@ -4009,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>11</v>
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>11</v>
@@ -4073,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -4134,13 +4134,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>10</v>
@@ -4166,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -4198,13 +4198,13 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
@@ -4230,13 +4230,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
@@ -4262,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
@@ -4294,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>11</v>
@@ -4326,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>11</v>
@@ -4358,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>11</v>
@@ -4390,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>11</v>
@@ -4422,13 +4422,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>10</v>
@@ -4454,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>11</v>
@@ -4486,13 +4486,13 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>10</v>
@@ -4518,13 +4518,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>10</v>
@@ -4550,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>10</v>
@@ -4582,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>11</v>
@@ -4614,13 +4614,13 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>10</v>
@@ -4646,13 +4646,13 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>10</v>
@@ -4678,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>11</v>
@@ -4713,7 +4713,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>10</v>
@@ -4728,7 +4728,7 @@
         <v>-100</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">

--- a/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/hohoPlanet/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D08C0A-B096-4F34-9965-21C0E50CF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E299F13-B310-40E9-9ADC-23EE26B8DE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로봇103-1105호와 103-1106가 망가졌군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뭐 그래도 이 행성의 지역과 지역별 자원에 대해서는 거의 다 조사했어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,6 +605,10 @@
   </si>
   <si>
     <t>근데 왜 다시 말소리가… 더 있는 건 아니겠지?...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇103-1105호와 103-1111가 망가졌군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2287,7 +2287,7 @@
         <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
@@ -2319,7 +2319,7 @@
         <v>99</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
@@ -2351,7 +2351,7 @@
         <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
@@ -2450,7 +2450,7 @@
         <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
@@ -2639,10 +2639,10 @@
         <v>101</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>10</v>
@@ -2767,10 +2767,10 @@
         <v>101</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>10</v>
@@ -2799,7 +2799,7 @@
         <v>99</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>11</v>
@@ -2898,7 +2898,7 @@
         <v>56</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -3055,7 +3055,7 @@
         <v>99</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
@@ -3081,13 +3081,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>11</v>
@@ -3113,16 +3113,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>107</v>
@@ -3314,7 +3314,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>10</v>
@@ -3407,10 +3407,10 @@
         <v>102</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
@@ -3439,10 +3439,10 @@
         <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>10</v>
@@ -3471,10 +3471,10 @@
         <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>10</v>
@@ -3503,10 +3503,10 @@
         <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>10</v>
@@ -3535,10 +3535,10 @@
         <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
@@ -3567,10 +3567,10 @@
         <v>103</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>10</v>
@@ -3599,10 +3599,10 @@
         <v>102</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3631,10 +3631,10 @@
         <v>103</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>10</v>
@@ -3663,10 +3663,10 @@
         <v>102</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3695,10 +3695,10 @@
         <v>102</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
@@ -3727,10 +3727,10 @@
         <v>103</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>10</v>
@@ -3759,10 +3759,10 @@
         <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>10</v>
@@ -3791,10 +3791,10 @@
         <v>103</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
@@ -3826,7 +3826,7 @@
         <v>66</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
@@ -3890,7 +3890,7 @@
         <v>67</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
@@ -3919,10 +3919,10 @@
         <v>103</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
@@ -3954,7 +3954,7 @@
         <v>68</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>10</v>
@@ -3983,7 +3983,7 @@
         <v>72</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>10</v>
@@ -4076,7 +4076,7 @@
         <v>71</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>106</v>
@@ -4713,7 +4713,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>10</v>
